--- a/Data/Ratkin Gene Expanded - 3043354134/3043354134.xlsx
+++ b/Data/Ratkin Gene Expanded - 3043354134/3043354134.xlsx
@@ -1,21 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stone\Desktop\Ratkin Gene Expanded - 3043354134\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stone\Desktop\새 폴더 (2)\RimworldExtractor 0.6.2\Ratkin Gene Expanded - 3043354134\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA1C6E22-4494-496F-A4C0-B3BFCB34EEAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F4E493-8484-4FC5-939C-8BC17DD6F9C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet name="Main_240330" sheetId="1" r:id="rId1"/>
+    <sheet name="231208" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -25,7 +39,7 @@
     <author>강석진</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{FD293F2E-79EF-4424-93C0-55BA2F20FE65}">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{2AA5D4F8-C514-43A3-A071-9F684B52D604}">
       <text>
         <r>
           <rPr>
@@ -271,7 +285,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E37" authorId="0" shapeId="0" xr:uid="{2943904D-52D1-4745-9B96-66E439393E34}">
+    <comment ref="E37" authorId="0" shapeId="0" xr:uid="{3937F95E-1AE2-434A-A5CE-EAE59439E06D}">
       <text>
         <r>
           <rPr>
@@ -522,7 +536,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="501">
   <si>
     <t>Class+Node [(Identifier (Key)]</t>
   </si>
@@ -533,6 +547,978 @@
     <t>Node [Not chosen]</t>
   </si>
   <si>
+    <t>Required Mods [Not chosen]</t>
+  </si>
+  <si>
+    <t>English [Source string]</t>
+  </si>
+  <si>
+    <t>Korean (한국어) [Translation]</t>
+  </si>
+  <si>
+    <t>GeneCategoryDef+RatkinGene.label</t>
+  </si>
+  <si>
+    <t>GeneCategoryDef</t>
+  </si>
+  <si>
+    <t>RatkinGene.label</t>
+  </si>
+  <si>
+    <t>Ratkin Gene</t>
+  </si>
+  <si>
+    <t>GeneCategoryDef+RatkinEarsGene.label</t>
+  </si>
+  <si>
+    <t>RatkinEarsGene.label</t>
+  </si>
+  <si>
+    <t>Ratkin Ears Gene</t>
+  </si>
+  <si>
+    <t>GeneCategoryDef+RatkinTailGene.label</t>
+  </si>
+  <si>
+    <t>RatkinTailGene.label</t>
+  </si>
+  <si>
+    <t>Ratkin Tail Gene</t>
+  </si>
+  <si>
+    <t>GeneDef+Ratkin_Ears.label</t>
+  </si>
+  <si>
+    <t>GeneDef</t>
+  </si>
+  <si>
+    <t>Ratkin_Ears.label</t>
+  </si>
+  <si>
+    <t>Mouse ears</t>
+  </si>
+  <si>
+    <t>GeneDef+Ratkin_Ears.description</t>
+  </si>
+  <si>
+    <t>Ratkin_Ears.description</t>
+  </si>
+  <si>
+    <t>The Ratkin with this gene has mouse ears</t>
+  </si>
+  <si>
+    <t>GeneDef+Ratkin_Tail.label</t>
+  </si>
+  <si>
+    <t>Ratkin_Tail.label</t>
+  </si>
+  <si>
+    <t>Mouse tail</t>
+  </si>
+  <si>
+    <t>GeneDef+Ratkin_Tail.description</t>
+  </si>
+  <si>
+    <t>Ratkin_Tail.description</t>
+  </si>
+  <si>
+    <t>The Ratkin with this gene has a common mouse tail</t>
+  </si>
+  <si>
+    <t>GeneDef+Ratkin_HamsterEars.label</t>
+  </si>
+  <si>
+    <t>Ratkin_HamsterEars.label</t>
+  </si>
+  <si>
+    <t>Hamster ears</t>
+  </si>
+  <si>
+    <t>GeneDef+Ratkin_HamsterEars.description</t>
+  </si>
+  <si>
+    <t>Ratkin_HamsterEars.description</t>
+  </si>
+  <si>
+    <t>The Ratkin with this gene has hamster ears</t>
+  </si>
+  <si>
+    <t>GeneDef+Ratkin_SquirrelEars.label</t>
+  </si>
+  <si>
+    <t>Ratkin_SquirrelEars.label</t>
+  </si>
+  <si>
+    <t>Squirrel ears</t>
+  </si>
+  <si>
+    <t>GeneDef+Ratkin_SquirrelEars.description</t>
+  </si>
+  <si>
+    <t>Ratkin_SquirrelEars.description</t>
+  </si>
+  <si>
+    <t>Ratkin with this gene have squirrel ears</t>
+  </si>
+  <si>
+    <t>GeneDef+Ratkin_SquirrelTail.label</t>
+  </si>
+  <si>
+    <t>Ratkin_SquirrelTail.label</t>
+  </si>
+  <si>
+    <t>Squirrel tail</t>
+  </si>
+  <si>
+    <t>GeneDef+Ratkin_SquirrelTail.description</t>
+  </si>
+  <si>
+    <t>Ratkin_SquirrelTail.description</t>
+  </si>
+  <si>
+    <t>Ratkin with this gene have squirrel tails</t>
+  </si>
+  <si>
+    <t>GeneDef+Ratkin_LabRatEars.label</t>
+  </si>
+  <si>
+    <t>Ratkin_LabRatEars.label</t>
+  </si>
+  <si>
+    <t>LabRat ears</t>
+  </si>
+  <si>
+    <t>GeneDef+Ratkin_LabRatEars.description</t>
+  </si>
+  <si>
+    <t>Ratkin_LabRatEars.description</t>
+  </si>
+  <si>
+    <t>Ratkin with this gene have mouse ears that magically have a tag attached to them.</t>
+  </si>
+  <si>
+    <t>GeneDef+Ratkin_MoleEars.label</t>
+  </si>
+  <si>
+    <t>Ratkin_MoleEars.label</t>
+  </si>
+  <si>
+    <t>Mole ears</t>
+  </si>
+  <si>
+    <t>GeneDef+Ratkin_MoleEars.description</t>
+  </si>
+  <si>
+    <t>Ratkin_MoleEars.description</t>
+  </si>
+  <si>
+    <t>Ratkin with this gene have mole ears</t>
+  </si>
+  <si>
+    <t>GeneDef+Ratkin_MoleTail.label</t>
+  </si>
+  <si>
+    <t>Ratkin_MoleTail.label</t>
+  </si>
+  <si>
+    <t>Mole tail</t>
+  </si>
+  <si>
+    <t>GeneDef+Ratkin_MoleTail.description</t>
+  </si>
+  <si>
+    <t>Ratkin_MoleTail.description</t>
+  </si>
+  <si>
+    <t>Ratkin with this gene has a mole tail</t>
+  </si>
+  <si>
+    <t>GeneDef+Ratkin_VoleEars.label</t>
+  </si>
+  <si>
+    <t>Ratkin_VoleEars.label</t>
+  </si>
+  <si>
+    <t>Vole ears</t>
+  </si>
+  <si>
+    <t>GeneDef+Ratkin_VoleEars.description</t>
+  </si>
+  <si>
+    <t>Ratkin_VoleEars.description</t>
+  </si>
+  <si>
+    <t>The Ratkin with this gene has vole ears</t>
+  </si>
+  <si>
+    <t>GeneDef+Ratkin_YunDanFengQing.label</t>
+  </si>
+  <si>
+    <t>Ratkin_YunDanFengQing.label</t>
+  </si>
+  <si>
+    <t>Take it easy</t>
+  </si>
+  <si>
+    <t>GeneDef+Ratkin_YunDanFengQing.description</t>
+  </si>
+  <si>
+    <t>Ratkin_YunDanFengQing.description</t>
+  </si>
+  <si>
+    <t>What adversity needs is not to be overcome, but to be actively eliminated. Before
+			that, I will always hold hope in my heart.</t>
+  </si>
+  <si>
+    <t>GeneDef+Ratkin_YunDanFengQing.customEffectDescriptions.0</t>
+  </si>
+  <si>
+    <t>Ratkin_YunDanFengQing.customEffectDescriptions.0</t>
+  </si>
+  <si>
+    <t>Don't care about the awful bedroom environment.</t>
+  </si>
+  <si>
+    <t>GeneDef+Ratkin_Prototype_Vole_Ears.label</t>
+  </si>
+  <si>
+    <t>Ratkin_Prototype_Vole_Ears.label</t>
+  </si>
+  <si>
+    <t>Prototype Vole ears</t>
+  </si>
+  <si>
+    <t>GeneDef+Ratkin_Prototype_Vole_Ears.description</t>
+  </si>
+  <si>
+    <t>Ratkin_Prototype_Vole_Ears.description</t>
+  </si>
+  <si>
+    <t>GeneDef+Ratkin_Prototype_Vole_Tail.label</t>
+  </si>
+  <si>
+    <t>Ratkin_Prototype_Vole_Tail.label</t>
+  </si>
+  <si>
+    <t>Prototype Vole tail</t>
+  </si>
+  <si>
+    <t>GeneDef+Ratkin_Prototype_Vole_Tail.description</t>
+  </si>
+  <si>
+    <t>Ratkin_Prototype_Vole_Tail.description</t>
+  </si>
+  <si>
+    <t>The Ratkin with this gene has a vole tail</t>
+  </si>
+  <si>
+    <t>XenotypeDef+Ratkin_HouseMouse.label</t>
+  </si>
+  <si>
+    <t>XenotypeDef</t>
+  </si>
+  <si>
+    <t>Ratkin_HouseMouse.label</t>
+  </si>
+  <si>
+    <t>House Mouse</t>
+  </si>
+  <si>
+    <t>XenotypeDef+Ratkin_HouseMouse.description</t>
+  </si>
+  <si>
+    <t>Ratkin_HouseMouse.description</t>
+  </si>
+  <si>
+    <t>A humanoid race with genes derived from rodents, the House Mouse is the most common
+			type among them. They have established a feudal kingdom based on agricultural life in
+			the fringe world, but their origins remain unclear.</t>
+  </si>
+  <si>
+    <t>XenotypeDef+Ratkin_HouseMouse.descriptionShort</t>
+  </si>
+  <si>
+    <t>Ratkin_HouseMouse.descriptionShort</t>
+  </si>
+  <si>
+    <t>A humanoid race with genes derived from rodents, the House Mouse is the most common type among them.</t>
+  </si>
+  <si>
+    <t>XenotypeDef+Ratkin_Mole.label</t>
+  </si>
+  <si>
+    <t>Ratkin_Mole.label</t>
+  </si>
+  <si>
+    <t>Mole</t>
+  </si>
+  <si>
+    <t>XenotypeDef+Ratkin_Mole.description</t>
+  </si>
+  <si>
+    <t>Ratkin_Mole.description</t>
+  </si>
+  <si>
+    <t>The Mole is a subspecies of the rodent race that lives in a vast underground society
+			and relies on mining for survival. Their genes give them powerful digestive abilities
+			and resistance to fatigue and pain. Prolonged underground labor has resulted in a
+			high-density muscular structure suitable for close combat, dexterous fingers for precise
+			manipulation, and low-light vision. However, their long-term underground existence has
+			made it nearly impossible for them to interact with any spiritual mediums, and their
+			stagnant social development has led to their aversion to learning.
+			PS: Although moles are generally nearsighted, it is not the result of diligent study.</t>
+  </si>
+  <si>
+    <t>XenotypeDef+Ratkin_Mole.descriptionShort</t>
+  </si>
+  <si>
+    <t>Ratkin_Mole.descriptionShort</t>
+  </si>
+  <si>
+    <t>The Mole is a subspecies of the rodent race that lives in a vast underground society and relies on mining for survival.</t>
+  </si>
+  <si>
+    <t>XenotypeDef+Ratkin_LabRat.label</t>
+  </si>
+  <si>
+    <t>Ratkin_LabRat.label</t>
+  </si>
+  <si>
+    <t>Lab Rat</t>
+  </si>
+  <si>
+    <t>XenotypeDef+Ratkin_LabRat.description</t>
+  </si>
+  <si>
+    <t>Ratkin_LabRat.description</t>
+  </si>
+  <si>
+    <t>The Lab Rat, also known as the "Rodent Test Subject," is an ancient species that can
+			be considered a living fossil. It is believed to be the origin of the diverse rodent
+			races today. As the name suggests, this category of rodents was created for research
+			purposes, with its origins dating back thousands of years to certain autonomous
+			mega-cities on Earth before humans left the planet and their biological experiments.
+			Even today, on the fringes of human space exploration, some groups continue to use them
+			for various experiments. Some escaped lab rats are assimilated into local rodent
+			societies, where there is no discrimination against them. Lab Rats despise being
+			referred to as "test subjects." They possess higher psychic abilities than other rodent
+			races. Genetically engineered modifications have endowed them with a calm temperament
+			and better appearance, but these alterations have also made their genetic makeup
+			unstable.</t>
+  </si>
+  <si>
+    <t>XenotypeDef+Ratkin_LabRat.descriptionShort</t>
+  </si>
+  <si>
+    <t>Ratkin_LabRat.descriptionShort</t>
+  </si>
+  <si>
+    <t>Lab Rats possess higher psychic abilities than other rodent races. Genetically
+			engineered modifications have endowed them with a calm temperament and better
+			appearance, but these alterations have also made their genetic makeup unstable.</t>
+  </si>
+  <si>
+    <t>XenotypeDef+Ratkin_Hamster.label</t>
+  </si>
+  <si>
+    <t>Ratkin_Hamster.label</t>
+  </si>
+  <si>
+    <t>Hamster</t>
+  </si>
+  <si>
+    <t>XenotypeDef+Ratkin_Hamster.description</t>
+  </si>
+  <si>
+    <t>Ratkin_Hamster.description</t>
+  </si>
+  <si>
+    <t>Strictly speaking, the Hamster is not a particularly independent classification. It
+			is widely believed to be a special group that has naturally diverged and then
+			re-integrated into the larger rodent population. The fierce competition for resources
+			after their divergence resulted in heightened combat abilities, physical strength, and
+			healing capabilities that surpass those of ordinary rodents. However, it also led to
+			their extremely combative nature. Reintegrated hamsters in rodent societies often hold
+			positions related to combat. The tail of the hamster has almost degenerated due to
+			evolution. Additionally, their golden fur color is another distinctive feature.</t>
+  </si>
+  <si>
+    <t>XenotypeDef+Ratkin_Hamster.descriptionShort</t>
+  </si>
+  <si>
+    <t>Ratkin_Hamster.descriptionShort</t>
+  </si>
+  <si>
+    <t>Hamsters possess physical strength and healing capabilities that surpass those
+			of ordinary rodents, but it has also led to their extremely combative nature. The tail
+			of the hamster has almost degenerated due to evolution, and their golden fur color is
+			another distinctive feature.</t>
+  </si>
+  <si>
+    <t>XenotypeDef+Ratkin_Squirrel.label</t>
+  </si>
+  <si>
+    <t>Ratkin_Squirrel.label</t>
+  </si>
+  <si>
+    <t>Squirrel</t>
+  </si>
+  <si>
+    <t>XenotypeDef+Ratkin_Squirrel.description</t>
+  </si>
+  <si>
+    <t>Ratkin_Squirrel.description</t>
+  </si>
+  <si>
+    <t>The Squirrel represents the farming class in rodent society. This population has a
+			high level of distinction due to their orange-red large ears and tail. Almost all
+			squirrels live in the fields outside the rodent kingdom. Unlike the kingdom, which has
+			limited contact with the outside world, squirrel populations have significant
+			opportunities for trade and interaction with local humans. Although they are friendly
+			and have positive personalities, the squirrels' restless nature, fast speech, and
+			peculiar accent often leave people bewildered.</t>
+  </si>
+  <si>
+    <t>XenotypeDef+Ratkin_Squirrel.descriptionShort</t>
+  </si>
+  <si>
+    <t>Ratkin_Squirrel.descriptionShort</t>
+  </si>
+  <si>
+    <t>The Squirrel represents the farming class in rodent society. They are friendly
+			and have positive personalities, but their fast-paced speech and behavior often leave
+			people confused.</t>
+  </si>
+  <si>
+    <t>XenotypeDef+Ratkin_Vole.label</t>
+  </si>
+  <si>
+    <t>Ratkin_Vole.label</t>
+  </si>
+  <si>
+    <t>Vole</t>
+  </si>
+  <si>
+    <t>XenotypeDef+Ratkin_Vole.description</t>
+  </si>
+  <si>
+    <t>Ratkin_Vole.description</t>
+  </si>
+  <si>
+    <t>A humanoid race with genes derived from rodents, the House Mouse is the most
+			common
+			type among them. They have established a feudal kingdom based on agricultural life in
+			the fringe world, but their origins remain unclear.</t>
+  </si>
+  <si>
+    <t>XenotypeDef+Ratkin_Vole.descriptionShort</t>
+  </si>
+  <si>
+    <t>Ratkin_Vole.descriptionShort</t>
+  </si>
+  <si>
+    <t>A humanoid race with genes derived from rodents, the House Mouse is the
+			most common type among them.</t>
+  </si>
+  <si>
+    <t>XenotypeDef+Ratkin_VolePrototype.label</t>
+  </si>
+  <si>
+    <t>Ratkin_VolePrototype.label</t>
+  </si>
+  <si>
+    <t>Vole Protorattus</t>
+  </si>
+  <si>
+    <t>XenotypeDef+Ratkin_VolePrototype.description</t>
+  </si>
+  <si>
+    <t>Ratkin_VolePrototype.description</t>
+  </si>
+  <si>
+    <t>No information.</t>
+  </si>
+  <si>
+    <t>XenotypeDef+Ratkin_VolePrototype.descriptionShort</t>
+  </si>
+  <si>
+    <t>Ratkin_VolePrototype.descriptionShort</t>
+  </si>
+  <si>
+    <t>HairDef+RK_Short01.label</t>
+  </si>
+  <si>
+    <t>HairDef</t>
+  </si>
+  <si>
+    <t>RK_Short01.label</t>
+  </si>
+  <si>
+    <t>Short01</t>
+  </si>
+  <si>
+    <t>HairDef+RK_Short02.label</t>
+  </si>
+  <si>
+    <t>RK_Short02.label</t>
+  </si>
+  <si>
+    <t>Short02</t>
+  </si>
+  <si>
+    <t>HairDef+RK_Wolftail.label</t>
+  </si>
+  <si>
+    <t>RK_Wolftail.label</t>
+  </si>
+  <si>
+    <t>Wolftail</t>
+  </si>
+  <si>
+    <t>HairDef+RK_Braided.label</t>
+  </si>
+  <si>
+    <t>RK_Braided.label</t>
+  </si>
+  <si>
+    <t>Braided</t>
+  </si>
+  <si>
+    <t>HairDef+RK_Arona.label</t>
+  </si>
+  <si>
+    <t>RK_Arona.label</t>
+  </si>
+  <si>
+    <t>Arona</t>
+  </si>
+  <si>
+    <t>ApparelLayerDef+Amulet.label</t>
+  </si>
+  <si>
+    <t>ApparelLayerDef</t>
+  </si>
+  <si>
+    <t>Amulet.label</t>
+  </si>
+  <si>
+    <t>amulet</t>
+  </si>
+  <si>
+    <t>ApparelLayerDef+Ring.label</t>
+  </si>
+  <si>
+    <t>Ring.label</t>
+  </si>
+  <si>
+    <t>ring</t>
+  </si>
+  <si>
+    <t>ApparelLayerDef+Wrist.label</t>
+  </si>
+  <si>
+    <t>Wrist.label</t>
+  </si>
+  <si>
+    <t>wrist</t>
+  </si>
+  <si>
+    <t>BodyPartGroupDef+Ratkin_Ears.label</t>
+  </si>
+  <si>
+    <t>BodyPartGroupDef</t>
+  </si>
+  <si>
+    <t>Ratkin Ears</t>
+  </si>
+  <si>
+    <t>BodyPartGroupDef+Ratkin_Tail.label</t>
+  </si>
+  <si>
+    <t>Ratkin Tail</t>
+  </si>
+  <si>
+    <t>ThingDef+UnfinishedJewelry.label</t>
+  </si>
+  <si>
+    <t>ThingDef</t>
+  </si>
+  <si>
+    <t>UnfinishedJewelry.label</t>
+  </si>
+  <si>
+    <t>unfinished jewelry</t>
+  </si>
+  <si>
+    <t>ThingDef+UnfinishedJewelry.description</t>
+  </si>
+  <si>
+    <t>UnfinishedJewelry.description</t>
+  </si>
+  <si>
+    <t>A jewelry being made, who knows what it will look like in the future?</t>
+  </si>
+  <si>
+    <t>ThingCategoryDef+RK_Jewelry.label</t>
+  </si>
+  <si>
+    <t>ThingCategoryDef</t>
+  </si>
+  <si>
+    <t>RK_Jewelry.label</t>
+  </si>
+  <si>
+    <t>jewelry</t>
+  </si>
+  <si>
+    <t>ThingCategoryDef+RK_Ring.label</t>
+  </si>
+  <si>
+    <t>RK_Ring.label</t>
+  </si>
+  <si>
+    <t>ThingCategoryDef+RK_Amulet.label</t>
+  </si>
+  <si>
+    <t>RK_Amulet.label</t>
+  </si>
+  <si>
+    <t>ThingCategoryDef+RK_Bracelet.label</t>
+  </si>
+  <si>
+    <t>RK_Bracelet.label</t>
+  </si>
+  <si>
+    <t>bracelet</t>
+  </si>
+  <si>
+    <t>ThingDef+RK_SchoolUniform_Child.label</t>
+  </si>
+  <si>
+    <t>RK_SchoolUniform_Child.label</t>
+  </si>
+  <si>
+    <t>kid school uniform</t>
+  </si>
+  <si>
+    <t>ThingDef+RK_SchoolUniform_Child.description</t>
+  </si>
+  <si>
+    <t>RK_SchoolUniform_Child.description</t>
+  </si>
+  <si>
+    <t>The clothes that little ratkin wear to school that can keep their whole body warm.</t>
+  </si>
+  <si>
+    <t>ThingDef+RK_SchoolUniform.label</t>
+  </si>
+  <si>
+    <t>RK_SchoolUniform.label</t>
+  </si>
+  <si>
+    <t>school uniform</t>
+  </si>
+  <si>
+    <t>ThingDef+RK_SchoolUniform.description</t>
+  </si>
+  <si>
+    <t>RK_SchoolUniform.description</t>
+  </si>
+  <si>
+    <t>The clothes that young ratkin wear to school are hot on the upper body and cold on the lower body.</t>
+  </si>
+  <si>
+    <t>ThoughtDef+RKThought_YunDanFengQing.stages.0.label</t>
+  </si>
+  <si>
+    <t>ThoughtDef</t>
+  </si>
+  <si>
+    <t>RKThought_YunDanFengQing.stages.0.label</t>
+  </si>
+  <si>
+    <t>humble bedroom</t>
+  </si>
+  <si>
+    <t>ThoughtDef+RKThought_YunDanFengQing.stages.0.description</t>
+  </si>
+  <si>
+    <t>RKThought_YunDanFengQing.stages.0.description</t>
+  </si>
+  <si>
+    <t>Though this room is humble, it is filled with the fragrance of my virtue.</t>
+  </si>
+  <si>
+    <t>ThoughtDef+RKThought_YunDanFengQing.stages.3.label</t>
+  </si>
+  <si>
+    <t>RKThought_YunDanFengQing.stages.3.label</t>
+  </si>
+  <si>
+    <t>decent bedroom</t>
+  </si>
+  <si>
+    <t>ThoughtDef+RKThought_YunDanFengQing.stages.3.description</t>
+  </si>
+  <si>
+    <t>RKThought_YunDanFengQing.stages.3.description</t>
+  </si>
+  <si>
+    <t>I got to sleep in a pretty decent bedroom.</t>
+  </si>
+  <si>
+    <t>ThoughtDef+RKThought_YunDanFengQing.stages.4.label</t>
+  </si>
+  <si>
+    <t>RKThought_YunDanFengQing.stages.4.label</t>
+  </si>
+  <si>
+    <t>slightly impressive bedroom</t>
+  </si>
+  <si>
+    <t>ThoughtDef+RKThought_YunDanFengQing.stages.4.description</t>
+  </si>
+  <si>
+    <t>RKThought_YunDanFengQing.stages.4.description</t>
+  </si>
+  <si>
+    <t>I got to sleep in a slightly impressive bedroom. I like it.</t>
+  </si>
+  <si>
+    <t>ThoughtDef+RKThought_YunDanFengQing.stages.5.label</t>
+  </si>
+  <si>
+    <t>RKThought_YunDanFengQing.stages.5.label</t>
+  </si>
+  <si>
+    <t>impressive bedroom</t>
+  </si>
+  <si>
+    <t>ThoughtDef+RKThought_YunDanFengQing.stages.5.description</t>
+  </si>
+  <si>
+    <t>RKThought_YunDanFengQing.stages.5.description</t>
+  </si>
+  <si>
+    <t>I slept in an impressive bedroom. It was great.</t>
+  </si>
+  <si>
+    <t>ThoughtDef+RKThought_YunDanFengQing.stages.6.label</t>
+  </si>
+  <si>
+    <t>RKThought_YunDanFengQing.stages.6.label</t>
+  </si>
+  <si>
+    <t>very impressive bedroom</t>
+  </si>
+  <si>
+    <t>ThoughtDef+RKThought_YunDanFengQing.stages.6.description</t>
+  </si>
+  <si>
+    <t>RKThought_YunDanFengQing.stages.6.description</t>
+  </si>
+  <si>
+    <t>I slept in a very impressive bedroom. I love it.</t>
+  </si>
+  <si>
+    <t>ThoughtDef+RKThought_YunDanFengQing.stages.7.label</t>
+  </si>
+  <si>
+    <t>RKThought_YunDanFengQing.stages.7.label</t>
+  </si>
+  <si>
+    <t>extremely impressive bedroom</t>
+  </si>
+  <si>
+    <t>ThoughtDef+RKThought_YunDanFengQing.stages.7.description</t>
+  </si>
+  <si>
+    <t>RKThought_YunDanFengQing.stages.7.description</t>
+  </si>
+  <si>
+    <t>I slept in an extremely impressive bedroom. It was marvelous.</t>
+  </si>
+  <si>
+    <t>ThoughtDef+RKThought_YunDanFengQing.stages.8.label</t>
+  </si>
+  <si>
+    <t>RKThought_YunDanFengQing.stages.8.label</t>
+  </si>
+  <si>
+    <t>unbelievably impressive bedroom</t>
+  </si>
+  <si>
+    <t>ThoughtDef+RKThought_YunDanFengQing.stages.8.description</t>
+  </si>
+  <si>
+    <t>RKThought_YunDanFengQing.stages.8.description</t>
+  </si>
+  <si>
+    <t>I slept in an unbelievably impressive bedroom. It was truly astounding.</t>
+  </si>
+  <si>
+    <t>ThoughtDef+RKThought_YunDanFengQing.stages.9.label</t>
+  </si>
+  <si>
+    <t>RKThought_YunDanFengQing.stages.9.label</t>
+  </si>
+  <si>
+    <t>wondrously impressive bedroom</t>
+  </si>
+  <si>
+    <t>ThoughtDef+RKThought_YunDanFengQing.stages.9.description</t>
+  </si>
+  <si>
+    <t>RKThought_YunDanFengQing.stages.9.description</t>
+  </si>
+  <si>
+    <t>I slept in a heavenly bedroom. It was wondrous.</t>
+  </si>
+  <si>
+    <t>TraitDef+RKTrait_YunDanFengQing.degreeDatas.0.label</t>
+  </si>
+  <si>
+    <t>TraitDef</t>
+  </si>
+  <si>
+    <t>RKTrait_YunDanFengQing.degreeDatas.0.label</t>
+  </si>
+  <si>
+    <t>take it easy</t>
+  </si>
+  <si>
+    <t>TraitDef+RKTrait_YunDanFengQing.degreeDatas.0.description</t>
+  </si>
+  <si>
+    <t>RKTrait_YunDanFengQing.degreeDatas.0.description</t>
+  </si>
+  <si>
+    <t>{PAWN_nameDef} don't care about the awful bedroom environment.</t>
+  </si>
+  <si>
+    <t>Keyed+ExtraExplosionDamageAmount</t>
+  </si>
+  <si>
+    <t>Keyed</t>
+  </si>
+  <si>
+    <t>ExtraExplosionDamageAmount</t>
+  </si>
+  <si>
+    <t>Additional explosion damage</t>
+  </si>
+  <si>
+    <t>Keyed+ExtraExplosionRadius</t>
+  </si>
+  <si>
+    <t>ExtraExplosionRadius</t>
+  </si>
+  <si>
+    <t>Additional explosion radius</t>
+  </si>
+  <si>
+    <t>Keyed+ExtraExplosionPropagationSpeed</t>
+  </si>
+  <si>
+    <t>ExtraExplosionPropagationSpeed</t>
+  </si>
+  <si>
+    <t>Additional explosion propagation speed</t>
+  </si>
+  <si>
+    <t>Keyed+ExtraExplosionChanceToStartFire</t>
+  </si>
+  <si>
+    <t>ExtraExplosionChanceToStartFire</t>
+  </si>
+  <si>
+    <t>Additional explosion chance to start fire</t>
+  </si>
+  <si>
+    <t>Keyed+ExtraExplosionArmorPenetration</t>
+  </si>
+  <si>
+    <t>ExtraExplosionArmorPenetration</t>
+  </si>
+  <si>
+    <t>Additional explosion armor penetration</t>
+  </si>
+  <si>
+    <t>Keyed+InitSplit</t>
+  </si>
+  <si>
+    <t>InitSplit</t>
+  </si>
+  <si>
+    <t>Self split</t>
+  </si>
+  <si>
+    <t>Keyed+InitSplitDesc</t>
+  </si>
+  <si>
+    <t>InitSplitDesc</t>
+  </si>
+  <si>
+    <t>The projectile that is launched will split into a certain number of sub-projectiles, typically resulting in altered trajectory and damage for each individual sub-projectile.</t>
+  </si>
+  <si>
+    <t>Keyed+ScatRadius</t>
+  </si>
+  <si>
+    <t>ScatRadius</t>
+  </si>
+  <si>
+    <t>Splitting Projectile Deviation Rate.</t>
+  </si>
+  <si>
+    <t>Keyed+ScatRadiusDesc</t>
+  </si>
+  <si>
+    <t>ScatRadiusDesc</t>
+  </si>
+  <si>
+    <t>The rate of a split child projectile deviates from the original trajectory axis.</t>
+  </si>
+  <si>
+    <t>Keyed+SubProjectileDmg</t>
+  </si>
+  <si>
+    <t>SubProjectileDmg</t>
+  </si>
+  <si>
+    <t>Child projectile damage</t>
+  </si>
+  <si>
+    <t>Keyed+SubProjectileDmgDesc</t>
+  </si>
+  <si>
+    <t>SubProjectileDmgDesc</t>
+  </si>
+  <si>
+    <t>The damage value of the split sub-projectile is generally not affected by factors such as weapon quality.</t>
+  </si>
+  <si>
+    <t>Patches.AlienRace.ThingDef_AlienRace+Ratkin.alienRace.generalSettings.alienPartGenerator.colorChannels.0.name</t>
+  </si>
+  <si>
+    <t>Patches.AlienRace.ThingDef_AlienRace</t>
+  </si>
+  <si>
+    <t>Ratkin.alienRace.generalSettings.alienPartGenerator.colorChannels.0.name</t>
+  </si>
+  <si>
+    <t>skin</t>
+  </si>
+  <si>
+    <t>Patches.AlienRace.ThingDef_AlienRace+Ratkin.alienRace.generalSettings.alienPartGenerator.colorChannels.1.name</t>
+  </si>
+  <si>
+    <t>Ratkin.alienRace.generalSettings.alienPartGenerator.colorChannels.1.name</t>
+  </si>
+  <si>
+    <t>hair</t>
+  </si>
+  <si>
     <t>EN [Source string]</t>
   </si>
   <si>
@@ -566,6 +1552,10 @@
     <t>Ratkins</t>
   </si>
   <si>
+    <t>EoralMilk.RatkinGeneExpanded</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>FactionDef+Rakinia.leaderTitle</t>
   </si>
   <si>
@@ -587,6 +1577,10 @@
     <t>ratkin kingdom</t>
   </si>
   <si>
+    <t>Ratkin Gene Expanded - 3043354134</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>FactionDef+Rakinia.description</t>
   </si>
   <si>
@@ -596,231 +1590,154 @@
     <t>랫킨 왕국입니다. 인간들 눈에 띄지 않도록 숨어서 살고 있으며 농경생활을 위주로 생활하는 비 침략적인 종족입니다.</t>
   </si>
   <si>
-    <t>GeneCategoryDef+RatkinGene.label</t>
-  </si>
-  <si>
-    <t>GeneCategoryDef</t>
-  </si>
-  <si>
-    <t>RatkinGene.label</t>
-  </si>
-  <si>
     <t>鼠族基因</t>
   </si>
   <si>
-    <t>GeneDef+Ratkin_Ears.label</t>
-  </si>
-  <si>
-    <t>GeneDef</t>
-  </si>
-  <si>
-    <t>Ratkin_Ears.label</t>
+    <t>랫킨유전자</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>鼠鼠耳朵</t>
   </si>
   <si>
-    <t>GeneDef+Ratkin_Ears.description</t>
-  </si>
-  <si>
-    <t>Ratkin_Ears.description</t>
+    <t>쥐 귀</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>拥有这种基因的鼠族有着鼠鼠耳朵</t>
   </si>
   <si>
-    <t>GeneDef+Ratkin_Tail.label</t>
-  </si>
-  <si>
-    <t>Ratkin_Tail.label</t>
+    <t>이 유전자를 가진 랫킨은 쥐귀를 가지고 있습니다</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>鼠鼠尾巴</t>
   </si>
   <si>
-    <t>GeneDef+Ratkin_Tail.description</t>
-  </si>
-  <si>
-    <t>Ratkin_Tail.description</t>
+    <t>쥐 꼬리</t>
   </si>
   <si>
     <t>拥有这种基因的鼠族有着普通鼠鼠尾巴</t>
   </si>
   <si>
-    <t>GeneDef+Ratkin_SquirrelEars.label</t>
-  </si>
-  <si>
-    <t>Ratkin_SquirrelEars.label</t>
+    <t>이 유전자를 가진 랫킨은 보통 쥐꼬리를 가지고 있습니다.</t>
   </si>
   <si>
     <t>松鼠耳朵</t>
   </si>
   <si>
-    <t>GeneDef+Ratkin_SquirrelEars.description</t>
-  </si>
-  <si>
-    <t>Ratkin_SquirrelEars.description</t>
+    <t>다람쥐 귀</t>
   </si>
   <si>
     <t>拥有这种基因的鼠族有着松鼠耳朵</t>
   </si>
   <si>
-    <t>GeneDef+Ratkin_SquirrelTail.label</t>
-  </si>
-  <si>
-    <t>Ratkin_SquirrelTail.label</t>
+    <t>이 유전자를 가진 랫킨은 다람쥐 귀를 가지고 있습니다.</t>
   </si>
   <si>
     <t>松鼠尾巴</t>
   </si>
   <si>
-    <t>GeneDef+Ratkin_SquirrelTail.description</t>
-  </si>
-  <si>
-    <t>Ratkin_SquirrelTail.description</t>
+    <t>다람쥐 꼬리</t>
   </si>
   <si>
     <t>拥有这种基因的鼠族有着松鼠尾巴</t>
   </si>
   <si>
-    <t>GeneDef+Ratkin_LabRatEars.label</t>
-  </si>
-  <si>
-    <t>Ratkin_LabRatEars.label</t>
+    <t>이 유전자를 가진 랫킨은 다람쥐 꼬리를 가지고 있습니다.</t>
   </si>
   <si>
     <t>白鼠耳朵</t>
   </si>
   <si>
-    <t>GeneDef+Ratkin_LabRatEars.description</t>
-  </si>
-  <si>
-    <t>Ratkin_LabRatEars.description</t>
+    <t>흰쥐 귀</t>
   </si>
   <si>
     <t>拥有这种基因的鼠族有着白鼠耳朵</t>
   </si>
   <si>
-    <t>GeneDef+Ratkin_MoleEars.label</t>
-  </si>
-  <si>
-    <t>Ratkin_MoleEars.label</t>
+    <t>이 유전자를 가진 랫킨은 흰쥐 귀를 가지고 있습니다.</t>
   </si>
   <si>
     <t>鼹鼠耳朵</t>
   </si>
   <si>
-    <t>GeneDef+Ratkin_MoleEars.description</t>
-  </si>
-  <si>
-    <t>Ratkin_MoleEars.description</t>
+    <t>두더지 귀</t>
   </si>
   <si>
     <t>拥有这种基因的鼠族有着鼹鼠耳朵</t>
   </si>
   <si>
-    <t>GeneDef+Ratkin_MoleTail.label</t>
-  </si>
-  <si>
-    <t>Ratkin_MoleTail.label</t>
+    <t>이 유전자를 가진 랫킨은 두더지 귀를 가지고 있습니다.</t>
   </si>
   <si>
     <t>鼹鼠尾巴</t>
   </si>
   <si>
-    <t>GeneDef+Ratkin_MoleTail.description</t>
-  </si>
-  <si>
-    <t>Ratkin_MoleTail.description</t>
+    <t>두더지 꼬리</t>
   </si>
   <si>
     <t>拥有这种基因的鼠族有着鼹鼠尾巴</t>
   </si>
   <si>
-    <t>XenotypeDef+Ratkin_HouseMouse.label</t>
-  </si>
-  <si>
-    <t>XenotypeDef</t>
-  </si>
-  <si>
-    <t>Ratkin_HouseMouse.label</t>
+    <t>이 유전자를 가진 랫킨은 두더지 꼬리를 가지고 있습니다.</t>
   </si>
   <si>
     <t>家鼠</t>
   </si>
   <si>
-    <t>XenotypeDef+Ratkin_HouseMouse.description</t>
-  </si>
-  <si>
-    <t>Ratkin_HouseMouse.description</t>
+    <t>집쥐</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>拥有啮齿类生物基因的类人种族，家鼠是其中最标准的一种。他们在边缘世界里建立起了以农耕生活为主的封建王国，但其起源至今仍不明朗。鼠族中的女性人数明显多于男性，且很难从外貌来区分他们之间的性别差异。</t>
   </si>
   <si>
-    <t>XenotypeDef+Ratkin_HouseMouse.descriptionShort</t>
-  </si>
-  <si>
-    <t>Ratkin_HouseMouse.descriptionShort</t>
+    <t>설치류 생물학적 유전자를 가진 인간 종족 중 가장 표준적인 종은 집쥐입니다.그들은 변방세계에 농경생활 위주의 봉건왕국을 세웠지만 그 기원은 아직도 불분명합니다.랫킨은 남성보다 여성의 수가 훨씬 많으며 외모로 성별 차이를                구별하기 어렵습니다.</t>
   </si>
   <si>
     <t>拥有啮齿类生物基因的类人种族，家鼠是其中最标准的一种。</t>
   </si>
   <si>
-    <t>XenotypeDef+Ratkin_Mole.label</t>
-  </si>
-  <si>
-    <t>Ratkin_Mole.label</t>
+    <t>설치류 생물학적 유전자를 가진 인간 종족 중 가장 표준적인 종은 집쥐입니다.</t>
   </si>
   <si>
     <t>鼹鼠</t>
   </si>
   <si>
-    <t>XenotypeDef+Ratkin_Mole.description</t>
-  </si>
-  <si>
-    <t>Ratkin_Mole.description</t>
+    <t>두더지</t>
   </si>
   <si>
     <t>鼹鼠是生活在一个庞大地下社会靠冶炼矿业为生的鼠族亚种，他们的基因使其拥有强大的消化能力且不宜疲倦和疼痛，长期的地下劳作也让这个种群拥有了适合肉搏的高密度肌肉，能够精巧操作的灵活手指和微光视觉；但长期的地下社会生活也导致了这一种群基本无法接触任何灵媒，停滞的社会发展也导致了其不好学的特性。\n ps：虽说鼹鼠基本都是近视眼，但绝不是用功读书的结果。</t>
   </si>
   <si>
-    <t>XenotypeDef+Ratkin_Mole.descriptionShort</t>
-  </si>
-  <si>
-    <t>Ratkin_Mole.descriptionShort</t>
+    <t>두더지는 거대한 지하사회에서 제련광업으로 살아가는 랫킨의 아종으로 그들의 유전자는 강력한 소화능력을 갖게 하고 피로와 통증에 적합하지 않으며 장기간의 지하노동을 통해 이 개체군은 육박에 적합한 고밀도 근육, 정교한 조작이 가능한 유연한 손가락과 희미한시력을 갖게 되지만 장기간의 지하사회 생활로 기본적으로 이 개체군이 어떠한 영매에도 접근할 수 없게 만들고 정체된 사회발전도 학습불능의 특성을 초래합니다\n ps：두더지는 기본적으로 근시로 알려져있지만 바라던 결과물은 아닙니다.</t>
   </si>
   <si>
     <t>鼹鼠是生活在一个庞大地下社会靠冶炼矿业为生的鼠族亚种。</t>
   </si>
   <si>
-    <t>XenotypeDef+Ratkin_LabRat.label</t>
-  </si>
-  <si>
-    <t>Ratkin_LabRat.label</t>
+    <t>두더지는 거대한 지하 사회에서 제련 및 광업으로 살아가는 랫킨의 아종입니다.</t>
   </si>
   <si>
     <t>实验白鼠</t>
   </si>
   <si>
-    <t>XenotypeDef+Ratkin_LabRat.description</t>
-  </si>
-  <si>
-    <t>Ratkin_LabRat.description</t>
+    <t>실험용 쥐</t>
   </si>
   <si>
     <t>试验白鼠又被称为“鼠族实验体”，这是一种可以被视为活化石的古老种类，据推测这一种类是如今五花八门的鼠族的起源；名如其所示，这种类别的鼠族是被用于某些研究而诞生的，其根源可以追溯到人类尚未离开地球的数千年前的某些自治体巨型城邦里的生物计划；时至今日在人类宇宙探索的边缘地带仍旧可以看到一些群体利用他们进行各种实验，一些逃脱出来的白鼠会被当地的其他鼠族社会吸纳成为其中一份子，鼠族社会对白鼠并没有什么歧视。白鼠很厌恶被称呼为“实验体”，这一种类拥有高于其他鼠族的心灵能力，人工调整过的基因使其拥有冷静性格和较好的容貌，但这些改造也导致了其基因链的不稳定。</t>
   </si>
   <si>
-    <t>XenotypeDef+Ratkin_LabRat.descriptionShort</t>
-  </si>
-  <si>
-    <t>Ratkin_LabRat.descriptionShort</t>
+    <t>실험용 쥐는 '랫킨 실험체'라고도 불리며, 이는 살아있는 화석으로 간주될 수 있는 오래된 종으로 오늘날 다양한 랫킨의 기원으로 추측되며, 이름처럼 이러한 종류의 랫킨은 일부 연구에 사용되어 탄생했으며, 그 뿌리는 인류가 지구를 떠나지 않은 수천 년 전의 일부 자치체의 거대 도시 국가에서의 생물학적 계획으로 거슬러 올라갈 수 있으며, 오늘날에도 여전히 인류 우주 탐사의 변방에서는 여전히 일부 집단을 이용하여 다양한 실험을 하는 것을 볼 수 있습니다.흰쥐는 '실험체'라고 불리는 것을 매우 싫어하며, 이 종은 다른 랫킨보다 더 높은 정신 능력을 가지고 있으며, 인위적으로 조정된 유전자는 차분한 성격과 더 나은 외모를 갖게 하지만 이러한 변형은 또한 유전자 사슬의 불안정성을 초래합니다.</t>
   </si>
   <si>
     <t>试验白鼠拥有高于其他鼠族的心灵能力，人工调整过的基因使其拥有冷静性格和较好的容貌，但这些改造也导致了其基因链的不稳定。</t>
   </si>
   <si>
+    <t>실험용 쥐는 다른 랫킨보다 더 높은 정신 능력을 가지고 있으며 인위적으로 조정된 유전자는 차분한 성격과 더 나은 외모를 갖지만 이러한 변형은 또한 유전자 사슬의 불안정성을 초래합니다.</t>
+  </si>
+  <si>
     <t>XenotypeDef+Ratkin_hamster.label</t>
   </si>
   <si>
@@ -830,6 +1747,9 @@
     <t>仓鼠</t>
   </si>
   <si>
+    <t>햄스터</t>
+  </si>
+  <si>
     <t>XenotypeDef+Ratkin_hamster.description</t>
   </si>
   <si>
@@ -839,6 +1759,9 @@
     <t>严格来说仓鼠不算是一个特别独立的分类，这种类别普遍认为是自然分化出来的一种特殊的群体独立演化以后又回归了鼠族大群体的结果；可能是由于离群后对资源的争夺导致了这一种群的战斗能力，身体强度和愈合能力达到了普通鼠族难以企及的高度，但同时也导致了他们极度好斗的性格，重返鼠族社会的仓鼠经常任职和战斗有关的职位。仓鼠的尾巴已经演化的几乎退化了，除此之外金色的毛色也是其明显特征之一。</t>
   </si>
   <si>
+    <t>햄스터는 엄밀히 말하면 특별히 독립적인 분류는 아니며 일반적으로 자연적으로 분화된 특별한 개체군이 독립적으로 진화한 후 큰 개체군으로 회귀한 결과로 간주되며, 개체군 이탈 후 자원 다툼으로 인해 이 개체군의 전투 능력이 발생할 수 있으며 신체 강도와 치유 능력은 일반 랫킨이 따라올 수 없는 수준에 도달했지만 동시에 극도로 호전적인 성격으로 이어져 랫킨 사회에 복귀한 햄스터는 종종 전투와 관련된 직위를 차지합니다.햄스터의 꼬리는 진화된 거의 퇴화되었으며 금색 털 색도 명백한 특징 중 하나입니다.</t>
+  </si>
+  <si>
     <t>XenotypeDef+Ratkin_hamster.descriptionShort</t>
   </si>
   <si>
@@ -848,33 +1771,27 @@
     <t>仓鼠身体强度和愈合能力达到了普通鼠族难以企及的高度，但同时也导致了他们极度好斗的性格。仓鼠的尾巴已经演化的几乎退化了，除此之外金色的毛色也是其明显特征之一。</t>
   </si>
   <si>
-    <t>XenotypeDef+Ratkin_Squirrel.label</t>
-  </si>
-  <si>
-    <t>Ratkin_Squirrel.label</t>
+    <t>햄스터의 신체 강도와 치유 능력은 일반 랫킨은 따라올 수 없는 수준에 도달했지만 극도로 공격적인 성격으로 이어졌습니다.햄스터의 꼬리는 진화된 거의 퇴화되었으며 금색 털 색도 명백한 특징 중 하나입니다.</t>
   </si>
   <si>
     <t>松鼠</t>
   </si>
   <si>
-    <t>XenotypeDef+Ratkin_Squirrel.description</t>
-  </si>
-  <si>
-    <t>Ratkin_Squirrel.description</t>
+    <t>다람쥐</t>
   </si>
   <si>
     <t>松鼠是鼠族社会中农耕阶层的代表者，这一种群因为橙红色的大耳朵和尾巴而拥有极高的辨识度，几乎全部的松鼠都生活在鼠族王国外围的田地中，和鲜少和外界接触的王国不同，松鼠的种群拥有相当多的和当地人类交流贸易的机会，虽然他们待人和善且性格积极，但松鼠们多动的习性，较快的语速和奇怪的口音经常会把人们搞得晕头转向。</t>
   </si>
   <si>
-    <t>XenotypeDef+Ratkin_Squirrel.descriptionShort</t>
-  </si>
-  <si>
-    <t>Ratkin_Squirrel.descriptionShort</t>
+    <t>다람쥐는 랫킨 사회의 농경계층을 대표하는 종으로, 이 종은 주황색-빨간색의 큰 귀와 꼬리로 인해 매우 높은 인지도를 가지고 있으며, 거의 모든 다람쥐가 랫킨 왕국 외곽의 밭에 살고 있으며, 외부와 거의 접촉하지 않는 왕국과 달리 다람쥐 종은 현지 인류와 교류할 수 있는 상당한 기회를 가지고 있으며, 친절하고 긍정적인 성격을 가지고 있지만 다람쥐들의 활동적인 습성, 빠른 어속과 이상한 억양은 종종 사람들을 어리둥절하게 만듭니다.</t>
   </si>
   <si>
     <t>松鼠是鼠族社会中农耕阶层的代表者。这一种群因为橙红色的大耳朵和尾巴而拥有极高的辨识度，几乎全部的松鼠都生活在鼠族王国外围的田地中，和鲜少和外界接触的王国不同，松鼠的种群拥有相当多的和当地人类交流贸易的机会，虽然他们待人和善且性格积极，但松鼠们多动的习性，较快的语速和奇怪的口音经常会把人们搞得晕头转向。</t>
   </si>
   <si>
+    <t>다람쥐는 랫킨 사회에서 농경 계층의 대표자입니다.이 개체군은 친절하고 긍정적인 성격을 가지고 있지만 다람쥐들의 활동적인 습성, 빠른 언어 속도 및 이상한 억양은 종종 사람들을 어리둥절하게 만듭니다.</t>
+  </si>
+  <si>
     <t>AlienRace.ThingDef_AlienRace+Ratkin.label</t>
   </si>
   <si>
@@ -956,119 +1873,259 @@
     <t>Ratkin_Su.tools.2.label</t>
   </si>
   <si>
+    <t>초기형 들쥐</t>
+  </si>
+  <si>
+    <t>들쥐</t>
+  </si>
+  <si>
+    <t>실험용 흰쥐</t>
+  </si>
+  <si>
+    <t>생쥐</t>
+  </si>
+  <si>
+    <t>운담풍경</t>
+  </si>
+  <si>
+    <t>극도로 인상적인 침실</t>
+  </si>
+  <si>
+    <t>어마하게 인상적인 침실</t>
+  </si>
+  <si>
+    <t>매우 인상적인 침실에서 잠을 잤어. 놀라운걸.</t>
+  </si>
+  <si>
+    <t>매우 인상적인 침실</t>
+  </si>
+  <si>
+    <t>침실이 상당히 인상적인걸, 너무 마음에 들어!</t>
+  </si>
+  <si>
+    <t>상당히 인상적인 침실</t>
+  </si>
+  <si>
+    <t>꽤 인상적인 침실</t>
+  </si>
+  <si>
+    <t>약간 인상적인 침실</t>
+  </si>
+  <si>
+    <t>괜찮은 침실</t>
+  </si>
+  <si>
+    <t>끔찍한 침실</t>
+  </si>
+  <si>
+    <t>랫킨 아동용 교복</t>
+  </si>
+  <si>
+    <t>랫킨교복</t>
+  </si>
+  <si>
+    <t>팔찌</t>
+  </si>
+  <si>
+    <t>아뮬렛</t>
+  </si>
+  <si>
+    <t>반지</t>
+  </si>
+  <si>
+    <t>장신구</t>
+  </si>
+  <si>
+    <t>아로나</t>
+  </si>
+  <si>
+    <t>땋은머리</t>
+  </si>
+  <si>
+    <t>울프테일</t>
+  </si>
+  <si>
+    <t>단발02</t>
+  </si>
+  <si>
+    <t>단발01</t>
+  </si>
+  <si>
+    <t>초기형 들쥐 귀</t>
+  </si>
+  <si>
+    <t>초기형 들쥐 꼬리</t>
+  </si>
+  <si>
+    <t>들쥐귀</t>
+  </si>
+  <si>
+    <t>두더지꼬리</t>
+  </si>
+  <si>
+    <t>두더지귀</t>
+  </si>
+  <si>
+    <t>흰쥐귀</t>
+  </si>
+  <si>
+    <t>다람쥐꼬리</t>
+  </si>
+  <si>
+    <t>다람쥐귀</t>
+  </si>
+  <si>
+    <t>햄스터귀</t>
+  </si>
+  <si>
+    <t>쥐꼬리</t>
+  </si>
+  <si>
+    <t>쥐귀</t>
+  </si>
+  <si>
+    <t>랫킨귀유전자</t>
+  </si>
+  <si>
+    <t>랫킨꼬리유전자</t>
+  </si>
+  <si>
     <t>랫킨유전자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>쥐 귀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 유전자를 가진 랫킨은 쥐귀를 가지고 있습니다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>쥐 꼬리</t>
-  </si>
-  <si>
-    <t>이 유전자를 가진 랫킨은 보통 쥐꼬리를 가지고 있습니다.</t>
-  </si>
-  <si>
-    <t>다람쥐 귀</t>
-  </si>
-  <si>
-    <t>이 유전자를 가진 랫킨은 다람쥐 귀를 가지고 있습니다.</t>
-  </si>
-  <si>
-    <t>다람쥐 꼬리</t>
-  </si>
-  <si>
-    <t>이 유전자를 가진 랫킨은 다람쥐 꼬리를 가지고 있습니다.</t>
-  </si>
-  <si>
-    <t>흰쥐 귀</t>
-  </si>
-  <si>
-    <t>이 유전자를 가진 랫킨은 흰쥐 귀를 가지고 있습니다.</t>
-  </si>
-  <si>
-    <t>두더지 귀</t>
-  </si>
-  <si>
-    <t>이 유전자를 가진 랫킨은 두더지 귀를 가지고 있습니다.</t>
-  </si>
-  <si>
-    <t>두더지 꼬리</t>
-  </si>
-  <si>
-    <t>이 유전자를 가진 랫킨은 두더지 꼬리를 가지고 있습니다.</t>
-  </si>
-  <si>
-    <t>집쥐</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>설치류 생물학적 유전자를 가진 인간 종족 중 가장 표준적인 종은 집쥐입니다.그들은 변방세계에 농경생활 위주의 봉건왕국을 세웠지만 그 기원은 아직도 불분명합니다.랫킨은 남성보다 여성의 수가 훨씬 많으며 외모로 성별 차이를                구별하기 어렵습니다.</t>
-  </si>
-  <si>
-    <t>설치류 생물학적 유전자를 가진 인간 종족 중 가장 표준적인 종은 집쥐입니다.</t>
-  </si>
-  <si>
-    <t>두더지</t>
-  </si>
-  <si>
-    <t>두더지는 거대한 지하사회에서 제련광업으로 살아가는 랫킨의 아종으로 그들의 유전자는 강력한 소화능력을 갖게 하고 피로와 통증에 적합하지 않으며 장기간의 지하노동을 통해 이 개체군은 육박에 적합한 고밀도 근육, 정교한 조작이 가능한 유연한 손가락과 희미한시력을 갖게 되지만 장기간의 지하사회 생활로 기본적으로 이 개체군이 어떠한 영매에도 접근할 수 없게 만들고 정체된 사회발전도 학습불능의 특성을 초래합니다\n ps：두더지는 기본적으로 근시로 알려져있지만 바라던 결과물은 아닙니다.</t>
-  </si>
-  <si>
-    <t>두더지는 거대한 지하 사회에서 제련 및 광업으로 살아가는 랫킨의 아종입니다.</t>
-  </si>
-  <si>
-    <t>실험용 쥐</t>
-  </si>
-  <si>
-    <t>실험용 쥐는 '랫킨 실험체'라고도 불리며, 이는 살아있는 화석으로 간주될 수 있는 오래된 종으로 오늘날 다양한 랫킨의 기원으로 추측되며, 이름처럼 이러한 종류의 랫킨은 일부 연구에 사용되어 탄생했으며, 그 뿌리는 인류가 지구를 떠나지 않은 수천 년 전의 일부 자치체의 거대 도시 국가에서의 생물학적 계획으로 거슬러 올라갈 수 있으며, 오늘날에도 여전히 인류 우주 탐사의 변방에서는 여전히 일부 집단을 이용하여 다양한 실험을 하는 것을 볼 수 있습니다.흰쥐는 '실험체'라고 불리는 것을 매우 싫어하며, 이 종은 다른 랫킨보다 더 높은 정신 능력을 가지고 있으며, 인위적으로 조정된 유전자는 차분한 성격과 더 나은 외모를 갖게 하지만 이러한 변형은 또한 유전자 사슬의 불안정성을 초래합니다.</t>
-  </si>
-  <si>
-    <t>실험용 쥐는 다른 랫킨보다 더 높은 정신 능력을 가지고 있으며 인위적으로 조정된 유전자는 차분한 성격과 더 나은 외모를 갖지만 이러한 변형은 또한 유전자 사슬의 불안정성을 초래합니다.</t>
-  </si>
-  <si>
-    <t>햄스터</t>
-  </si>
-  <si>
-    <t>햄스터는 엄밀히 말하면 특별히 독립적인 분류는 아니며 일반적으로 자연적으로 분화된 특별한 개체군이 독립적으로 진화한 후 큰 개체군으로 회귀한 결과로 간주되며, 개체군 이탈 후 자원 다툼으로 인해 이 개체군의 전투 능력이 발생할 수 있으며 신체 강도와 치유 능력은 일반 랫킨이 따라올 수 없는 수준에 도달했지만 동시에 극도로 호전적인 성격으로 이어져 랫킨 사회에 복귀한 햄스터는 종종 전투와 관련된 직위를 차지합니다.햄스터의 꼬리는 진화된 거의 퇴화되었으며 금색 털 색도 명백한 특징 중 하나입니다.</t>
-  </si>
-  <si>
-    <t>햄스터의 신체 강도와 치유 능력은 일반 랫킨은 따라올 수 없는 수준에 도달했지만 극도로 공격적인 성격으로 이어졌습니다.햄스터의 꼬리는 진화된 거의 퇴화되었으며 금색 털 색도 명백한 특징 중 하나입니다.</t>
-  </si>
-  <si>
-    <t>다람쥐</t>
-  </si>
-  <si>
-    <t>다람쥐는 랫킨 사회의 농경계층을 대표하는 종으로, 이 종은 주황색-빨간색의 큰 귀와 꼬리로 인해 매우 높은 인지도를 가지고 있으며, 거의 모든 다람쥐가 랫킨 왕국 외곽의 밭에 살고 있으며, 외부와 거의 접촉하지 않는 왕국과 달리 다람쥐 종은 현지 인류와 교류할 수 있는 상당한 기회를 가지고 있으며, 친절하고 긍정적인 성격을 가지고 있지만 다람쥐들의 활동적인 습성, 빠른 어속과 이상한 억양은 종종 사람들을 어리둥절하게 만듭니다.</t>
-  </si>
-  <si>
-    <t>다람쥐는 랫킨 사회에서 농경 계층의 대표자입니다.이 개체군은 친절하고 긍정적인 성격을 가지고 있지만 다람쥐들의 활동적인 습성, 빠른 언어 속도 및 이상한 억양은 종종 사람들을 어리둥절하게 만듭니다.</t>
-  </si>
-  <si>
-    <t>Ratkin Gene Expanded - 3043354134</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EoralMilk.RatkinGeneExpanded</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>랫킨꼬리</t>
+  </si>
+  <si>
+    <t>랫킨귀</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>이 유전자를 가진 랫킨은 쥐귀를 가지고 있습니다.</t>
+  </si>
+  <si>
+    <t>이 유전자를 가진 랫킨은 쥐꼬리를 가지고 있습니다.</t>
+  </si>
+  <si>
+    <t>이 유전자를 가진 랫킨은 햄스터 귀를 가지고 있습니다.</t>
+  </si>
+  <si>
+    <t>이 유전자를 가진 랫킨은 흰쥐의 귀를 가지고 있는데, 그 귀에는 항상 신기한 듯 꼬리표가 달려 있습니다..</t>
+  </si>
+  <si>
+    <t>이 유전자를 가진 들쥐는 들쥐귀를 가지고 있습니다.</t>
+  </si>
+  <si>
+    <t>환경 나쁜 침실을 신경쓰지 않습니다.</t>
+  </si>
+  <si>
+    <t>설치류의 유전자를 가진 인간 유사 종족으로, 생쥐는 그중 가장 표준적인 종족입니다.
+		그들은 변방 세계에 농경 생활을 위주로 한 봉건 왕국을 세웠지만, 그 기원은 아직도 불분명합니다.</t>
+  </si>
+  <si>
+    <t>설치류의 유전자를 가진 인간 유사 종족으로, 생쥐는 그중 가장 표준적인 종족입니다.</t>
+  </si>
+  <si>
+    <t>두더지는 거대한 지하 사회에 살면서 제련 광업에 의지하여 생활하는 랫킨의 아종입니다.</t>
+  </si>
+  <si>
+    <t>알려진 정보가 없습니다.</t>
+  </si>
+  <si>
+    <t>아이들이 등교할 때 입는 옷으로 몸 전체를 따뜻하게 유지할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>랫킨이 학교 다닐때 입는 옷, 상체는 덥고 하체는 춥습니다.</t>
+  </si>
+  <si>
+    <t>끔찍한 침실이지만, 이것또한 나의 덕이야.</t>
+  </si>
+  <si>
+    <t>고난은 극복하는 것이 아니라 스스로 없애는 것이다. 그 전까지 난 희망을 품으리라.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 유전자를 가진 랫킨은 들쥐 꼬리를 가지고 있습니다. 그러나 이 유전자 서열은 약간 다른 것 같습니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 유전자를 가진 랫킨은 들쥐의 귀를 가지고 있습니다. 그러나 이 유전자 서열은 약간 다른 것 같습니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>두더지는 거대한 지하 사회에서 제련 광업에 의존하여 살아가는 쥐의 아종으로 그들의 유전자는 강력한 소화 능력을 가지고 있으며 피로와 통증에 적합하지 않습니다. 장기간의 지하 작업으로 인해 이 개체군은 근접전에 적합한 고밀도 근육, 정교한 조작이 가능한 유연한 손가락과 미광 시야를 갖게 되었습니다. 그러나 장기간의 지하 사회 생활로 인해 이 개체군은 초능력에 접근할 수 없었고, 정체된 사회 발전으로 인해 배우기 어려운 특성을 초래했습니다.\n\nps: 두더지는 기본적으로 근시안이라고는 하지만, 열심히 노력한 결과가 아닙니다..</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>실험쥐는 '랫킨 실험체'라고도 불리며 살아있는 화석으로 볼 수 있는 오래된 종으로 오늘날 다양한 랫킨의 기원으로 추정되며, 이름 그대로 인간이 지구를 떠나지 않은 수천 년 전 어떤 자치체의 거대한 도시에서의 생물학적 계획으로 거슬러 올라가는 어떤 종류의 쥐들이 어떤 연구에 사용되어 탄생한 것입니다. 오늘날에도 여전히 인간 우주 탐사의 변두리 지역에서 일부 그룹이 다양한 실험을 위해 사용하는 것을 볼 수 있으며, 탈출한 실험쥐는 다른 지역의 랫킨 사회에 의해 흡수되었고 랫킨 사회는 실험쥐를 차별하지 않았습니다. 흰 쥐는 '실험체'라고 불리는 것을 매우 싫어합니다. 이 종은 다른 쥐보다 정신 능력이 높으며 인공적으로 조정된 유전자는 차분한 성격과 더 나은 외모를 갖지만, 이러한 변형은 또한 유전자 사슬의 불안정성을 초래합니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>실험용 쥐는 다른 쥐보다 정신 능력이 높으며 인공적으로 조정된 유전자는 차분한 성격과 더 나은 외관을 갖지만, 이러한 변형은 유전자 사슬의 불안정성을 초래합니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>엄밀히 말하면 햄스터는 특별한 독립적인 분류가 아닙니다. 이런 분류는 보편적으로 자연 분화 된 특수한 집단이 독립적으로 진화한 후에 다시 랫킨 집단에게로 돌아왔습니다. 무리를 떠난 후 자원을 놓고 경쟁한 탓인지 이 무리의 전투능력, 신체강도와 치유능력은 일반 랫킨이 따라올 수 없는 높이에 이르렀지만, 동시에 그들의 극도로 호전적인 성격으로 이어졌습니다. 랫킨 사회로 돌아온 햄스터는 종종 전투와 관련된 직책을 맡습니다. 햄스터의 꼬리는 진화된 거의 퇴화되었으며 금색 털 색깔도 두드러진 특징 중 하나입니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>햄스터의 신체 강도와 치유 능력은 일반 랫킨이 따라올 수 없는 높지만, 동시에 극도로 공격적인 성격으로 이어집니다. 햄스터의 꼬리는 진화된 거의 퇴화되었으며 금색 털 색깔도 두드러진 특징 중 하나입니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>다람쥐는 랫킨사회에서 농경계층을 대표하는 종으로, 이 종은 크고 붉은 귀와 꼬리로 인해 인지도가 매우 높으며, 거의 모든 다람쥐가 랫킨왕국 외곽의 밭에 살고 있습니다. 외부와의 접촉이 적은 왕국과 달리 다람쥐 개체군은 현지 인류와 교류하고 무역할 기회가 상당히 많습니다. 그들은 사람들에게 친절하고 긍정적인 성격이지만 다람쥐들의 다이나믹한 습성, 빠른 언어 속도, 이상한 억양이 종종 사람들을 어리둥절하게 만듭니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>다람쥐는 랫킨 사회에서 농경 계층을 대표하는 사람입니다. 친절한 데다 성격도 적극적이지만 너무 빠른 말투와 행동은 사람을 어리둥절하게 만듭니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>들쥐는 독립적인 랫킨 문화가 장기간 진화한 후의 결과입니다. 그들의 기록과 묘사에 따르면, 이전에는 들쥐 종족 위주의 랫킨 왕국이 존재했지만 여러 가지 이유로 오늘날까지 왕국은 존속하지 않고, 그 국민은 형형색색의 작은 군락을 이루고 있음을 확인할 수 있습니다. 들쥐의 정신은 대부분 비교적 안정적이며, 유전적 특성 때문인지 오랜 문화적 훈육 때문인지 불분명합니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>들쥐는 독립적인 랫킨 문화가 장기간 진화한 후의 결과입니다. 그들의 마음과 정신은 대부분 비교적 안정적이며, 유전적 특성 때문인지 오랜 문화적 훈육 때문인지 불분명합니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>침실이 좋아. 마음에 드는걸.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>침실이 인상적인걸, 너무 좋아!</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>어마하게 인상적인 침실에서 잠을 잤어, 엄청 놀라운걸！</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>극도로 인상적인 침실에서 잠을 잤어, 정말 대단했어！</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{PAWN_nameDef}(은)는 고난에 필요한 것은 극복하는 것이 아니라 스스로 없에버리는 것이라고 생각하기에 {PAWN_nameDef}(은)는 희망을 가집니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -1077,6 +2134,19 @@
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1111,6 +2181,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -1127,11 +2202,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
       </patternFill>
     </fill>
   </fills>
@@ -1159,26 +2229,33 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+  <cellStyleXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="셀 확인" xfId="1" builtinId="23"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="표준 2" xfId="2" xr:uid="{AF82B45D-4EAD-4271-93B6-CD79A3DD07A8}"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1474,792 +2551,2506 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="85.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="37.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="72.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.54296875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34.90625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="111.81640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1796875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.1796875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A20" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A25" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A26" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A27" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A28" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A29" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A30" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="34" x14ac:dyDescent="0.45">
+      <c r="A31" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A32" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A33" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="85" x14ac:dyDescent="0.45">
+      <c r="A34" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A35" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A36" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="119" x14ac:dyDescent="0.45">
+      <c r="A37" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A38" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A39" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="85" x14ac:dyDescent="0.45">
+      <c r="A40" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="34" x14ac:dyDescent="0.45">
+      <c r="A41" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A42" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="68" x14ac:dyDescent="0.45">
+      <c r="A43" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A44" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A45" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A46" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A47" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A48" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A49" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A50" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A51" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A52" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A53" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A54" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A55" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A56" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A57" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A58" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A59" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A60" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A61" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A62" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A63" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A64" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A65" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A66" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A67" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A68" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A69" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A70" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A71" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A72" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A73" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A74" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A75" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A76" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A77" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A78" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A79" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A80" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A81" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A82" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A83" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A84" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A85" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A86" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A87" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A88" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A89" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A90" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A91" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A92" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A93" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A94" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A95" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A96" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A97" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A98" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A99" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A100" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A101" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A759FD03-8AAE-47C5-881F-68113356D17C}">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="47.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.9140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="34.25" customWidth="1"/>
-    <col min="6" max="6" width="33.58203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="52" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="37.36328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="36.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.7265625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
+      <c r="D1" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="6" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="7" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="6" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="7" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="4" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="D7" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="D8" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="1" t="s">
+      <c r="B9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="D9" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="1:6" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="1" t="s">
+      <c r="B10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="D10" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="B11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10" s="1" t="s">
+      <c r="D11" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="B12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11" s="1" t="s">
+      <c r="D12" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="B13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12" s="1" t="s">
+      <c r="D13" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A14" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="B14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A13" s="1" t="s">
+      <c r="D14" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A15" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="B15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A14" s="1" t="s">
+      <c r="D15" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A16" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="B16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A15" s="1" t="s">
+      <c r="D16" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="B17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A16" s="1" t="s">
+      <c r="D17" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="B18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A17" s="1" t="s">
+      <c r="D18" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="B19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A18" s="1" t="s">
+      <c r="D19" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="B20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A19" s="1" t="s">
+      <c r="D20" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A21" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="1" t="s">
+      <c r="B21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A20" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A21" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>158</v>
+      <c r="D21" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A22" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>159</v>
+      <c r="A22" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A23" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>160</v>
+      <c r="A23" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A24" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>161</v>
+      <c r="A24" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A25" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>162</v>
+      <c r="A25" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A26" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>163</v>
+      <c r="A26" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A27" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>164</v>
+      <c r="A27" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A28" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D28" s="1" t="s">
+      <c r="A28" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>165</v>
+      <c r="C28" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A29" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>166</v>
+      <c r="A29" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A30" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>167</v>
+      <c r="A30" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A31" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>168</v>
+      <c r="A31" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A32" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>169</v>
+      <c r="A32" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A33" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>170</v>
+      <c r="A33" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A34" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>171</v>
+      <c r="A34" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A35" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>172</v>
+      <c r="A35" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A36" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>173</v>
+      <c r="A36" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A37" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>120</v>
+      <c r="A37" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>404</v>
       </c>
       <c r="E37" s="5"/>
     </row>
     <row r="38" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A38" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>123</v>
+      <c r="A38" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>407</v>
       </c>
       <c r="E38" s="5"/>
     </row>
     <row r="39" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A39" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>126</v>
+      <c r="A39" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>410</v>
       </c>
       <c r="E39" s="5"/>
     </row>
     <row r="40" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A40" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>129</v>
+      <c r="A40" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>413</v>
       </c>
       <c r="E40" s="5"/>
     </row>
     <row r="41" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A41" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>132</v>
+      <c r="A41" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>416</v>
       </c>
       <c r="E41" s="5"/>
     </row>
     <row r="42" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A42" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>135</v>
+      <c r="A42" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>419</v>
       </c>
       <c r="E42" s="5"/>
     </row>
     <row r="43" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A43" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>123</v>
+      <c r="A43" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>407</v>
       </c>
       <c r="E43" s="5"/>
     </row>
     <row r="44" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A44" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>126</v>
+      <c r="A44" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>410</v>
       </c>
       <c r="E44" s="5"/>
     </row>
     <row r="45" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A45" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>129</v>
+      <c r="A45" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>413</v>
       </c>
       <c r="E45" s="5"/>
     </row>
     <row r="46" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A46" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>132</v>
+      <c r="A46" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>416</v>
       </c>
       <c r="E46" s="5"/>
     </row>
     <row r="47" spans="1:5" ht="17.5" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
